--- a/data/pca/factorExposure/factorExposure_2009-05-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01716413474134424</v>
+        <v>-0.01653811629305441</v>
       </c>
       <c r="C2">
-        <v>0.001622166052830646</v>
+        <v>0.001088512247801531</v>
       </c>
       <c r="D2">
-        <v>0.01016838710853556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01005410055941835</v>
+      </c>
+      <c r="E2">
+        <v>-0.002382206499460424</v>
+      </c>
+      <c r="F2">
+        <v>-0.01252809553387921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08867204118656816</v>
+        <v>-0.09140787015775804</v>
       </c>
       <c r="C4">
-        <v>0.02011190055500446</v>
+        <v>0.01544323917248015</v>
       </c>
       <c r="D4">
-        <v>0.07834365958755136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08202582891047398</v>
+      </c>
+      <c r="E4">
+        <v>-0.02684076159703658</v>
+      </c>
+      <c r="F4">
+        <v>0.03338368480835945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-4.820662802213501e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-3.34809985929537e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002344839032277164</v>
+      </c>
+      <c r="E5">
+        <v>-0.0001009580162297044</v>
+      </c>
+      <c r="F5">
+        <v>-7.742473890307646e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1538179160055188</v>
+        <v>-0.1618103400569781</v>
       </c>
       <c r="C6">
-        <v>0.03143129524163218</v>
+        <v>0.03028204942998964</v>
       </c>
       <c r="D6">
-        <v>-0.03588324849624559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02560938756940642</v>
+      </c>
+      <c r="E6">
+        <v>-0.0112690709834641</v>
+      </c>
+      <c r="F6">
+        <v>0.03996482665303405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05909282201238918</v>
+        <v>-0.06169501584908412</v>
       </c>
       <c r="C7">
-        <v>0.001926913772053417</v>
+        <v>-0.001278444155586582</v>
       </c>
       <c r="D7">
-        <v>0.04833241991581266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05360668629203565</v>
+      </c>
+      <c r="E7">
+        <v>-0.01469848805607176</v>
+      </c>
+      <c r="F7">
+        <v>0.04894257424475942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0609614540297039</v>
+        <v>-0.05710536598356461</v>
       </c>
       <c r="C8">
-        <v>-0.009817263818140777</v>
+        <v>-0.011590598202014</v>
       </c>
       <c r="D8">
-        <v>0.02648542209820748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03010376675559964</v>
+      </c>
+      <c r="E8">
+        <v>-0.0196852409472984</v>
+      </c>
+      <c r="F8">
+        <v>-0.02912895326139293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06852931107584824</v>
+        <v>-0.07089387279352619</v>
       </c>
       <c r="C9">
-        <v>0.01595309201027176</v>
+        <v>0.01086220095009266</v>
       </c>
       <c r="D9">
-        <v>0.0805871897653538</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08545088766126485</v>
+      </c>
+      <c r="E9">
+        <v>-0.02475717287532175</v>
+      </c>
+      <c r="F9">
+        <v>0.04914012236737689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08718821024294188</v>
+        <v>-0.08811617247116917</v>
       </c>
       <c r="C10">
-        <v>0.01733540397159774</v>
+        <v>0.02245002269492745</v>
       </c>
       <c r="D10">
-        <v>-0.1650674923248999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1582839339724046</v>
+      </c>
+      <c r="E10">
+        <v>0.03154135131687341</v>
+      </c>
+      <c r="F10">
+        <v>-0.0601746294378852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08973783380413046</v>
+        <v>-0.08691919806657532</v>
       </c>
       <c r="C11">
-        <v>0.01742833671656714</v>
+        <v>0.0121345461839897</v>
       </c>
       <c r="D11">
-        <v>0.1117847237605512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.117994344961413</v>
+      </c>
+      <c r="E11">
+        <v>-0.05207280193215451</v>
+      </c>
+      <c r="F11">
+        <v>0.02617325551721339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09655507225096192</v>
+        <v>-0.0908057809816477</v>
       </c>
       <c r="C12">
-        <v>0.01598863769339617</v>
+        <v>0.009817289061625784</v>
       </c>
       <c r="D12">
-        <v>0.1178902101615638</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1330601914528154</v>
+      </c>
+      <c r="E12">
+        <v>-0.05193134513181408</v>
+      </c>
+      <c r="F12">
+        <v>0.0323258137675431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04460497980434389</v>
+        <v>-0.04375453366115641</v>
       </c>
       <c r="C13">
-        <v>0.006794859864473354</v>
+        <v>0.003114777479976748</v>
       </c>
       <c r="D13">
-        <v>0.04609833741214966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0542619348663143</v>
+      </c>
+      <c r="E13">
+        <v>-0.0004594317195541517</v>
+      </c>
+      <c r="F13">
+        <v>0.004667626027799551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02009399864148985</v>
+        <v>-0.02369171288420109</v>
       </c>
       <c r="C14">
-        <v>0.01540463532629498</v>
+        <v>0.01412410628810765</v>
       </c>
       <c r="D14">
-        <v>0.03203344979469704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03326819560000195</v>
+      </c>
+      <c r="E14">
+        <v>-0.02225138190267345</v>
+      </c>
+      <c r="F14">
+        <v>0.01207973154698116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03419825515143038</v>
+        <v>-0.03429063392624736</v>
       </c>
       <c r="C15">
-        <v>0.00769483632751721</v>
+        <v>0.005938167781892996</v>
       </c>
       <c r="D15">
-        <v>0.04611659232872706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04640549139654206</v>
+      </c>
+      <c r="E15">
+        <v>-0.008272235864931081</v>
+      </c>
+      <c r="F15">
+        <v>0.03020095802742509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07340319568889961</v>
+        <v>-0.07126037408875709</v>
       </c>
       <c r="C16">
-        <v>0.007425695640606507</v>
+        <v>0.001787768325256937</v>
       </c>
       <c r="D16">
-        <v>0.1150166066159029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1288063868609288</v>
+      </c>
+      <c r="E16">
+        <v>-0.06429237538425518</v>
+      </c>
+      <c r="F16">
+        <v>0.0295635916837151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001309144788336776</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0005422179331665469</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002281711970763366</v>
+      </c>
+      <c r="E17">
+        <v>-0.002107386753592806</v>
+      </c>
+      <c r="F17">
+        <v>-0.002232840032232941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02551061091634558</v>
+        <v>-0.0429134037662812</v>
       </c>
       <c r="C18">
-        <v>-0.001640437200030066</v>
+        <v>-0.001634990018927333</v>
       </c>
       <c r="D18">
-        <v>0.02192300818170211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01677819804777628</v>
+      </c>
+      <c r="E18">
+        <v>0.003829999564821926</v>
+      </c>
+      <c r="F18">
+        <v>-0.008899105460473934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06429747942039482</v>
+        <v>-0.06295872885240977</v>
       </c>
       <c r="C20">
-        <v>0.005868419980471482</v>
+        <v>0.001943074881740555</v>
       </c>
       <c r="D20">
-        <v>0.07322830665124827</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07924820828354773</v>
+      </c>
+      <c r="E20">
+        <v>-0.06263149955453232</v>
+      </c>
+      <c r="F20">
+        <v>0.0316456037252583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04114321024645923</v>
+        <v>-0.04290268670652678</v>
       </c>
       <c r="C21">
-        <v>0.01010311040022291</v>
+        <v>0.007398373545630265</v>
       </c>
       <c r="D21">
-        <v>0.03509246720614861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.0363825818135449</v>
+      </c>
+      <c r="E21">
+        <v>-0.00352944481720303</v>
+      </c>
+      <c r="F21">
+        <v>-0.023759456892598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04004118992930292</v>
+        <v>-0.04179143902811138</v>
       </c>
       <c r="C22">
-        <v>0.001227361921497828</v>
+        <v>0.0009686324583296983</v>
       </c>
       <c r="D22">
-        <v>-3.5843155063234e-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006100737777586628</v>
+      </c>
+      <c r="E22">
+        <v>-0.03615069884209783</v>
+      </c>
+      <c r="F22">
+        <v>-0.05179073434131892</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03999590745988389</v>
+        <v>-0.04176038550414387</v>
       </c>
       <c r="C23">
-        <v>0.001213351248461622</v>
+        <v>0.0009568985176786287</v>
       </c>
       <c r="D23">
-        <v>-7.6932941110347e-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.006114867358353746</v>
+      </c>
+      <c r="E23">
+        <v>-0.03618027899633805</v>
+      </c>
+      <c r="F23">
+        <v>-0.05184543398187155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08077088360892987</v>
+        <v>-0.07725169131064029</v>
       </c>
       <c r="C24">
-        <v>0.008091364725638412</v>
+        <v>0.002632397916872855</v>
       </c>
       <c r="D24">
-        <v>0.1163713592802779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.122001083188072</v>
+      </c>
+      <c r="E24">
+        <v>-0.05135617248664764</v>
+      </c>
+      <c r="F24">
+        <v>0.03216452762405397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08592335730700795</v>
+        <v>-0.0825184082756045</v>
       </c>
       <c r="C25">
-        <v>0.01051781406339599</v>
+        <v>0.005647013763517957</v>
       </c>
       <c r="D25">
-        <v>0.1038662764576995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1101396642697549</v>
+      </c>
+      <c r="E25">
+        <v>-0.03474682845400387</v>
+      </c>
+      <c r="F25">
+        <v>0.02851423427442651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05756903952453231</v>
+        <v>-0.06079348670307317</v>
       </c>
       <c r="C26">
-        <v>0.01849084276358474</v>
+        <v>0.01513971790738675</v>
       </c>
       <c r="D26">
-        <v>0.03470300444714586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04514539649406837</v>
+      </c>
+      <c r="E26">
+        <v>-0.03387162928678919</v>
+      </c>
+      <c r="F26">
+        <v>-0.006237137827128713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1355702383063118</v>
+        <v>-0.1443636164347396</v>
       </c>
       <c r="C28">
-        <v>0.01687933838778221</v>
+        <v>0.02477592396178907</v>
       </c>
       <c r="D28">
-        <v>-0.2629418795012893</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2583592887711272</v>
+      </c>
+      <c r="E28">
+        <v>0.06773340126192517</v>
+      </c>
+      <c r="F28">
+        <v>0.003950479607384652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02616841790464396</v>
+        <v>-0.02878744809075207</v>
       </c>
       <c r="C29">
-        <v>0.01012176925660748</v>
+        <v>0.009273822766919701</v>
       </c>
       <c r="D29">
-        <v>0.02964358559573578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03043008233971909</v>
+      </c>
+      <c r="E29">
+        <v>-0.01867075534662326</v>
+      </c>
+      <c r="F29">
+        <v>-0.01356794609386813</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05838080069341753</v>
+        <v>-0.05610587909903342</v>
       </c>
       <c r="C30">
-        <v>0.00790283384863124</v>
+        <v>0.002913480478856354</v>
       </c>
       <c r="D30">
-        <v>0.08000826750820918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08810016923167165</v>
+      </c>
+      <c r="E30">
+        <v>-0.0145922098808975</v>
+      </c>
+      <c r="F30">
+        <v>0.08176560689330967</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05054373477877204</v>
+        <v>-0.05112639186206179</v>
       </c>
       <c r="C31">
-        <v>0.01779181777217948</v>
+        <v>0.01645804483833932</v>
       </c>
       <c r="D31">
-        <v>0.02185120424041359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02468317325551031</v>
+      </c>
+      <c r="E31">
+        <v>-0.02985199404786127</v>
+      </c>
+      <c r="F31">
+        <v>-0.001108202457674239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04719045555031447</v>
+        <v>-0.05137184986385895</v>
       </c>
       <c r="C32">
-        <v>0.002215372548435982</v>
+        <v>-0.001067677985734544</v>
       </c>
       <c r="D32">
-        <v>0.02876376343222237</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03319208152756373</v>
+      </c>
+      <c r="E32">
+        <v>-0.03523929253188602</v>
+      </c>
+      <c r="F32">
+        <v>0.00313212660558402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09017715219426173</v>
+        <v>-0.08997231537608062</v>
       </c>
       <c r="C33">
-        <v>0.014077048103105</v>
+        <v>0.00815083382712172</v>
       </c>
       <c r="D33">
-        <v>0.09097534998569146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1045947796753348</v>
+      </c>
+      <c r="E33">
+        <v>-0.04911279836097349</v>
+      </c>
+      <c r="F33">
+        <v>0.04457733181456892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06876452259917251</v>
+        <v>-0.0670022874084286</v>
       </c>
       <c r="C34">
-        <v>0.01595278585999493</v>
+        <v>0.0110919514771793</v>
       </c>
       <c r="D34">
-        <v>0.09766633300526664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1100100134500527</v>
+      </c>
+      <c r="E34">
+        <v>-0.03928765988212715</v>
+      </c>
+      <c r="F34">
+        <v>0.03677212149508396</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02588412690650298</v>
+        <v>-0.02749670210244862</v>
       </c>
       <c r="C35">
-        <v>0.004208543639280778</v>
+        <v>0.003669613173573272</v>
       </c>
       <c r="D35">
-        <v>0.008368918319322561</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.0116533044538767</v>
+      </c>
+      <c r="E35">
+        <v>-0.01567757567735437</v>
+      </c>
+      <c r="F35">
+        <v>0.0002274826756326397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02455980496370805</v>
+        <v>-0.02857444260391429</v>
       </c>
       <c r="C36">
-        <v>0.008233902274729013</v>
+        <v>0.007219036713654833</v>
       </c>
       <c r="D36">
-        <v>0.03862095670113745</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03966467788234442</v>
+      </c>
+      <c r="E36">
+        <v>-0.019680259502014</v>
+      </c>
+      <c r="F36">
+        <v>0.01586748806085095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002099785491825887</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007125443471355145</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003474224053875594</v>
+      </c>
+      <c r="E37">
+        <v>-0.0006644270674395282</v>
+      </c>
+      <c r="F37">
+        <v>-0.001259193352366886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1091513681593731</v>
+        <v>-0.09856353174354905</v>
       </c>
       <c r="C39">
-        <v>0.02311209439412992</v>
+        <v>0.01668556462979688</v>
       </c>
       <c r="D39">
-        <v>0.1498173500945604</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1521507817210133</v>
+      </c>
+      <c r="E39">
+        <v>-0.06245267262054564</v>
+      </c>
+      <c r="F39">
+        <v>0.02361978420412956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03867703333351817</v>
+        <v>-0.04426062523673039</v>
       </c>
       <c r="C40">
-        <v>0.009652829948167102</v>
+        <v>0.008358586437110455</v>
       </c>
       <c r="D40">
-        <v>0.02479563641954591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03285793818678221</v>
+      </c>
+      <c r="E40">
+        <v>-0.003287235299334217</v>
+      </c>
+      <c r="F40">
+        <v>-0.01661017218092407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02475388758527697</v>
+        <v>-0.0272171121253139</v>
       </c>
       <c r="C41">
-        <v>0.007611049397162093</v>
+        <v>0.006918449453643299</v>
       </c>
       <c r="D41">
-        <v>0.007549323717667667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009619094380390545</v>
+      </c>
+      <c r="E41">
+        <v>-0.01305871502394651</v>
+      </c>
+      <c r="F41">
+        <v>-0.007026705629673946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04116356607738079</v>
+        <v>-0.03965235044936836</v>
       </c>
       <c r="C43">
-        <v>0.008482130233430312</v>
+        <v>0.007799709872137925</v>
       </c>
       <c r="D43">
-        <v>0.01750247284134577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01950288125312955</v>
+      </c>
+      <c r="E43">
+        <v>-0.02768189117167603</v>
+      </c>
+      <c r="F43">
+        <v>-0.01614278433526868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06687334769885964</v>
+        <v>-0.07688368360218298</v>
       </c>
       <c r="C44">
-        <v>0.02428048644393633</v>
+        <v>0.02016006228159267</v>
       </c>
       <c r="D44">
-        <v>0.09474578012958418</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0943019228182599</v>
+      </c>
+      <c r="E44">
+        <v>-0.06098425022147323</v>
+      </c>
+      <c r="F44">
+        <v>0.1707412143899195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0218112142411886</v>
+        <v>-0.02458577330607441</v>
       </c>
       <c r="C46">
-        <v>0.004564607658918825</v>
+        <v>0.003654679319178592</v>
       </c>
       <c r="D46">
-        <v>0.01043734274195343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01372437789447011</v>
+      </c>
+      <c r="E46">
+        <v>-0.03119754020566109</v>
+      </c>
+      <c r="F46">
+        <v>-0.0057146991369201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05380526224889059</v>
+        <v>-0.05302573828171058</v>
       </c>
       <c r="C47">
-        <v>0.005910165367253568</v>
+        <v>0.004861237809670727</v>
       </c>
       <c r="D47">
-        <v>0.007287098123417402</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01102867163515944</v>
+      </c>
+      <c r="E47">
+        <v>-0.02550278235311721</v>
+      </c>
+      <c r="F47">
+        <v>-0.03110394608980807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0485837919065836</v>
+        <v>-0.05169715219624873</v>
       </c>
       <c r="C48">
-        <v>0.005474169116382545</v>
+        <v>0.002808033088975067</v>
       </c>
       <c r="D48">
-        <v>0.04819752734909143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05079451298675496</v>
+      </c>
+      <c r="E48">
+        <v>0.00250640307590516</v>
+      </c>
+      <c r="F48">
+        <v>0.01351365245570915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1978534107735488</v>
+        <v>-0.2001186261848761</v>
       </c>
       <c r="C49">
-        <v>0.02429791617388091</v>
+        <v>0.02216063112418742</v>
       </c>
       <c r="D49">
-        <v>-0.01170180034521164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005101748779201729</v>
+      </c>
+      <c r="E49">
+        <v>-0.02747013241621644</v>
+      </c>
+      <c r="F49">
+        <v>0.05089828051951454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04921196352036248</v>
+        <v>-0.05163756472892712</v>
       </c>
       <c r="C50">
-        <v>0.01345596698417356</v>
+        <v>0.01217704622478897</v>
       </c>
       <c r="D50">
-        <v>0.02200748925419914</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02454498227928976</v>
+      </c>
+      <c r="E50">
+        <v>-0.0326905080589643</v>
+      </c>
+      <c r="F50">
+        <v>0.009784340198871616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1543750507439788</v>
+        <v>-0.1474445800865429</v>
       </c>
       <c r="C52">
-        <v>0.02218605666894063</v>
+        <v>0.02001189121825172</v>
       </c>
       <c r="D52">
-        <v>0.04119565313537365</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04328677759125957</v>
+      </c>
+      <c r="E52">
+        <v>-0.02061589063803136</v>
+      </c>
+      <c r="F52">
+        <v>0.04171589589083875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1744462072039216</v>
+        <v>-0.1682805767667013</v>
       </c>
       <c r="C53">
-        <v>0.02357634954690287</v>
+        <v>0.02325526851145405</v>
       </c>
       <c r="D53">
-        <v>0.005008868119278446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00673975433138542</v>
+      </c>
+      <c r="E53">
+        <v>-0.02688129164285732</v>
+      </c>
+      <c r="F53">
+        <v>0.07524476283884615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01614576769568293</v>
+        <v>-0.01838228163965117</v>
       </c>
       <c r="C54">
-        <v>0.01204134872354976</v>
+        <v>0.01096581009954759</v>
       </c>
       <c r="D54">
-        <v>0.02933625797580424</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02888834319273132</v>
+      </c>
+      <c r="E54">
+        <v>-0.02062763816110193</v>
+      </c>
+      <c r="F54">
+        <v>-0.002903783810787883</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1183123297604415</v>
+        <v>-0.1161036381306851</v>
       </c>
       <c r="C55">
-        <v>0.02047153553460138</v>
+        <v>0.02026976665954129</v>
       </c>
       <c r="D55">
-        <v>0.003106273861752528</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00860090870553013</v>
+      </c>
+      <c r="E55">
+        <v>-0.02502729214755913</v>
+      </c>
+      <c r="F55">
+        <v>0.04625650903615249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.18083982360307</v>
+        <v>-0.1754404877218545</v>
       </c>
       <c r="C56">
-        <v>0.02162289174618411</v>
+        <v>0.021485852291814</v>
       </c>
       <c r="D56">
-        <v>-0.007361709400661069</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002012837701142525</v>
+      </c>
+      <c r="E56">
+        <v>-0.03041513645940895</v>
+      </c>
+      <c r="F56">
+        <v>0.05517514119546466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04648805429177335</v>
+        <v>-0.04539628935084551</v>
       </c>
       <c r="C58">
-        <v>0.005013363341924699</v>
+        <v>0.0002471110692045867</v>
       </c>
       <c r="D58">
-        <v>0.06586427258406287</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07639953447468373</v>
+      </c>
+      <c r="E58">
+        <v>-0.03722632695434606</v>
+      </c>
+      <c r="F58">
+        <v>-0.03530847478152379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1622334043145301</v>
+        <v>-0.1684617932111402</v>
       </c>
       <c r="C59">
-        <v>0.01868667368582992</v>
+        <v>0.02512875850539542</v>
       </c>
       <c r="D59">
-        <v>-0.2215518959905898</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2162747694375017</v>
+      </c>
+      <c r="E59">
+        <v>0.05179808252910906</v>
+      </c>
+      <c r="F59">
+        <v>-0.04216760870417691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2382121114951514</v>
+        <v>-0.229915110682652</v>
       </c>
       <c r="C60">
-        <v>0.005918599549700993</v>
+        <v>0.002404100101512622</v>
       </c>
       <c r="D60">
-        <v>0.03747665129720459</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04012847305003567</v>
+      </c>
+      <c r="E60">
+        <v>0.0002659904122135608</v>
+      </c>
+      <c r="F60">
+        <v>0.006623442038422528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08044255036350662</v>
+        <v>-0.0743661106086226</v>
       </c>
       <c r="C61">
-        <v>0.0169933365327548</v>
+        <v>0.01149387923115105</v>
       </c>
       <c r="D61">
-        <v>0.1116153058900395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1173739540873523</v>
+      </c>
+      <c r="E61">
+        <v>-0.04166155851183007</v>
+      </c>
+      <c r="F61">
+        <v>0.01072301914673735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1731659574291596</v>
+        <v>-0.1687023316774038</v>
       </c>
       <c r="C62">
-        <v>0.02531026361810814</v>
+        <v>0.02409806869938448</v>
       </c>
       <c r="D62">
-        <v>-0.0001072441035691498</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007663689263770584</v>
+      </c>
+      <c r="E62">
+        <v>-0.033506488105938</v>
+      </c>
+      <c r="F62">
+        <v>0.04169720742906815</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04219088827663364</v>
+        <v>-0.04611278172758369</v>
       </c>
       <c r="C63">
-        <v>0.005904369344370604</v>
+        <v>0.002585706383128037</v>
       </c>
       <c r="D63">
-        <v>0.04928317422377703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06062343490144333</v>
+      </c>
+      <c r="E63">
+        <v>-0.02623883175007155</v>
+      </c>
+      <c r="F63">
+        <v>0.001354837128451404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1147677912845191</v>
+        <v>-0.1113755108771872</v>
       </c>
       <c r="C64">
-        <v>0.01753645960242088</v>
+        <v>0.01405590908100559</v>
       </c>
       <c r="D64">
-        <v>0.03424876244719917</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04220937043784464</v>
+      </c>
+      <c r="E64">
+        <v>-0.02529959231055355</v>
+      </c>
+      <c r="F64">
+        <v>0.02680774065261028</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1453099927869886</v>
+        <v>-0.152438472378208</v>
       </c>
       <c r="C65">
-        <v>0.0375281149106792</v>
+        <v>0.03701589447367707</v>
       </c>
       <c r="D65">
-        <v>-0.0570114833430377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04489724841192731</v>
+      </c>
+      <c r="E65">
+        <v>-0.00545886410247417</v>
+      </c>
+      <c r="F65">
+        <v>0.03710018780267244</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.131622425712643</v>
+        <v>-0.1182753807461333</v>
       </c>
       <c r="C66">
-        <v>0.02159210847178976</v>
+        <v>0.01487898207684884</v>
       </c>
       <c r="D66">
-        <v>0.1330332679507201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1413886396924184</v>
+      </c>
+      <c r="E66">
+        <v>-0.06610908831944987</v>
+      </c>
+      <c r="F66">
+        <v>0.02878761962092249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.063435368868514</v>
+        <v>-0.05629794518565436</v>
       </c>
       <c r="C67">
-        <v>0.006656565270790464</v>
+        <v>0.004383776644703359</v>
       </c>
       <c r="D67">
-        <v>0.05532985430027021</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05858506768895952</v>
+      </c>
+      <c r="E67">
+        <v>-0.02411249745203421</v>
+      </c>
+      <c r="F67">
+        <v>-0.03273790388740448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1097976339547632</v>
+        <v>-0.1188930479671901</v>
       </c>
       <c r="C68">
-        <v>0.02696073009769037</v>
+        <v>0.03540758764569184</v>
       </c>
       <c r="D68">
-        <v>-0.2625472068877356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2592573271911553</v>
+      </c>
+      <c r="E68">
+        <v>0.08818822234881976</v>
+      </c>
+      <c r="F68">
+        <v>7.830485739510796e-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03939347754602888</v>
+        <v>-0.03865235639027597</v>
       </c>
       <c r="C69">
-        <v>0.002644918220362742</v>
+        <v>0.001713698429306867</v>
       </c>
       <c r="D69">
-        <v>0.008619481835967056</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009769637080151225</v>
+      </c>
+      <c r="E69">
+        <v>-0.02853157022315221</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005833893897381999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06799010255022685</v>
+        <v>-0.06779071298980729</v>
       </c>
       <c r="C70">
-        <v>-0.02383844039382606</v>
+        <v>-0.02605508507914572</v>
       </c>
       <c r="D70">
-        <v>0.02487763091379576</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02913297553430551</v>
+      </c>
+      <c r="E70">
+        <v>0.02221588985503577</v>
+      </c>
+      <c r="F70">
+        <v>-0.1844843241583753</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.128558309288112</v>
+        <v>-0.1391145330267225</v>
       </c>
       <c r="C71">
-        <v>0.03180497615034283</v>
+        <v>0.04030259584521954</v>
       </c>
       <c r="D71">
-        <v>-0.2777194022691172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2691157183749661</v>
+      </c>
+      <c r="E71">
+        <v>0.0985801035510572</v>
+      </c>
+      <c r="F71">
+        <v>0.003632814926082539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1366726506180068</v>
+        <v>-0.143620714181136</v>
       </c>
       <c r="C72">
-        <v>0.02964180451331211</v>
+        <v>0.02985283872531928</v>
       </c>
       <c r="D72">
-        <v>-0.0003448634967541332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0030648809958419</v>
+      </c>
+      <c r="E72">
+        <v>-0.0392658559971503</v>
+      </c>
+      <c r="F72">
+        <v>0.02910636538133226</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2023646850142339</v>
+        <v>-0.2036164466146231</v>
       </c>
       <c r="C73">
-        <v>0.01946709982755922</v>
+        <v>0.01551960365681412</v>
       </c>
       <c r="D73">
-        <v>0.009405466359877712</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0187495313256307</v>
+      </c>
+      <c r="E73">
+        <v>-0.0634590602391896</v>
+      </c>
+      <c r="F73">
+        <v>0.045775970770597</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09052497998566536</v>
+        <v>-0.09128196569852999</v>
       </c>
       <c r="C74">
-        <v>0.01499957852460088</v>
+        <v>0.01428603286160734</v>
       </c>
       <c r="D74">
-        <v>0.01341158815010298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01698087471385868</v>
+      </c>
+      <c r="E74">
+        <v>-0.0410560178545854</v>
+      </c>
+      <c r="F74">
+        <v>0.05234131809921054</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1330869012463035</v>
+        <v>-0.1252027845346349</v>
       </c>
       <c r="C75">
-        <v>0.03271813730066388</v>
+        <v>0.03077048188685206</v>
       </c>
       <c r="D75">
-        <v>0.02329831793930305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02974234022393771</v>
+      </c>
+      <c r="E75">
+        <v>-0.05553070548383565</v>
+      </c>
+      <c r="F75">
+        <v>0.02242492063080106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08024470419533693</v>
+        <v>-0.0914826213591423</v>
       </c>
       <c r="C77">
-        <v>0.01457027838486727</v>
+        <v>0.009443040845943589</v>
       </c>
       <c r="D77">
-        <v>0.1134997590671839</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1162485962991084</v>
+      </c>
+      <c r="E77">
+        <v>-0.04740957221332386</v>
+      </c>
+      <c r="F77">
+        <v>0.03579882585767837</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1006198870709563</v>
+        <v>-0.1007410405173323</v>
       </c>
       <c r="C78">
-        <v>0.04551420363678734</v>
+        <v>0.04137979616231364</v>
       </c>
       <c r="D78">
-        <v>0.1128657236267366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1097963867558484</v>
+      </c>
+      <c r="E78">
+        <v>-0.07528101362938321</v>
+      </c>
+      <c r="F78">
+        <v>0.05460000505122312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1677778959671059</v>
+        <v>-0.1638545612053245</v>
       </c>
       <c r="C79">
-        <v>0.02826027678378388</v>
+        <v>0.02678949609119792</v>
       </c>
       <c r="D79">
-        <v>0.005992077295527659</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01338663474799095</v>
+      </c>
+      <c r="E79">
+        <v>-0.04599512397369173</v>
+      </c>
+      <c r="F79">
+        <v>0.01362880651029491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08034481824264061</v>
+        <v>-0.07915461263775626</v>
       </c>
       <c r="C80">
-        <v>0.003112785955596074</v>
+        <v>0.0004099686415666262</v>
       </c>
       <c r="D80">
-        <v>0.05414952784305095</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05364547629558378</v>
+      </c>
+      <c r="E80">
+        <v>-0.0375428329462564</v>
+      </c>
+      <c r="F80">
+        <v>-0.02701381090524982</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1204966823480536</v>
+        <v>-0.1150755978420957</v>
       </c>
       <c r="C81">
-        <v>0.03452695582007784</v>
+        <v>0.03385211218470851</v>
       </c>
       <c r="D81">
-        <v>0.006596745731414942</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01180294074912358</v>
+      </c>
+      <c r="E81">
+        <v>-0.05119655316751393</v>
+      </c>
+      <c r="F81">
+        <v>0.01841292538741033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1665522883676582</v>
+        <v>-0.1645116127528542</v>
       </c>
       <c r="C82">
-        <v>0.0285238354624926</v>
+        <v>0.02866341304049998</v>
       </c>
       <c r="D82">
-        <v>0.006422204120617603</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004610393463667269</v>
+      </c>
+      <c r="E82">
+        <v>-0.02531136984806578</v>
+      </c>
+      <c r="F82">
+        <v>0.08381802145701202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05979316905839666</v>
+        <v>-0.05457928369348165</v>
       </c>
       <c r="C83">
-        <v>0.005917141523646796</v>
+        <v>0.003800439752997548</v>
       </c>
       <c r="D83">
-        <v>0.03624720804995208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03879246033460588</v>
+      </c>
+      <c r="E83">
+        <v>0.0006554426940877054</v>
+      </c>
+      <c r="F83">
+        <v>-0.03624415860376493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05986753120560179</v>
+        <v>-0.0553523380134942</v>
       </c>
       <c r="C84">
-        <v>0.01376996451925373</v>
+        <v>0.01092835142966882</v>
       </c>
       <c r="D84">
-        <v>0.07393724723146555</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07565910715123464</v>
+      </c>
+      <c r="E84">
+        <v>-0.01250432934468882</v>
+      </c>
+      <c r="F84">
+        <v>0.01650355523052328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1399054376921517</v>
+        <v>-0.1349497281498938</v>
       </c>
       <c r="C85">
-        <v>0.03196802030321603</v>
+        <v>0.03124679737024052</v>
       </c>
       <c r="D85">
-        <v>0.005409668197469301</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009705869379819834</v>
+      </c>
+      <c r="E85">
+        <v>-0.03487039995388294</v>
+      </c>
+      <c r="F85">
+        <v>0.04909343795481857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1003924848990173</v>
+        <v>-0.09330385580869946</v>
       </c>
       <c r="C86">
-        <v>-0.001892485007456027</v>
+        <v>-0.004889109204190201</v>
       </c>
       <c r="D86">
-        <v>0.01697694937586976</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05221419514447904</v>
+      </c>
+      <c r="E86">
+        <v>-0.2419031119468816</v>
+      </c>
+      <c r="F86">
+        <v>-0.8916064850443912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09419225258667308</v>
+        <v>-0.09134305439945375</v>
       </c>
       <c r="C87">
-        <v>0.02863596886983448</v>
+        <v>0.02092418520361889</v>
       </c>
       <c r="D87">
-        <v>0.07177215633305714</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09029815087178472</v>
+      </c>
+      <c r="E87">
+        <v>0.05874403865485042</v>
+      </c>
+      <c r="F87">
+        <v>0.04882565846681491</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06301236731691881</v>
+        <v>-0.06137268176137693</v>
       </c>
       <c r="C88">
-        <v>0.00632242781644671</v>
+        <v>0.003376569422834842</v>
       </c>
       <c r="D88">
-        <v>0.04908483943061871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04982059577548992</v>
+      </c>
+      <c r="E88">
+        <v>-0.02676005977799822</v>
+      </c>
+      <c r="F88">
+        <v>0.01440847000815466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1201990200155222</v>
+        <v>-0.1286044728673889</v>
       </c>
       <c r="C89">
-        <v>0.007577315439979858</v>
+        <v>0.01543908998317763</v>
       </c>
       <c r="D89">
-        <v>-0.238043128756373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2400012176359221</v>
+      </c>
+      <c r="E89">
+        <v>0.09005427324873178</v>
+      </c>
+      <c r="F89">
+        <v>-0.009410437468857107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1398814553305038</v>
+        <v>-0.1540078087557537</v>
       </c>
       <c r="C90">
-        <v>0.02781914854003206</v>
+        <v>0.03691281417412015</v>
       </c>
       <c r="D90">
-        <v>-0.2638563830612883</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2666658112658956</v>
+      </c>
+      <c r="E90">
+        <v>0.1159112753730274</v>
+      </c>
+      <c r="F90">
+        <v>-0.01077128426159502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1237778847608908</v>
+        <v>-0.1204862654793507</v>
       </c>
       <c r="C91">
-        <v>0.02283910052630684</v>
+        <v>0.02270817621529112</v>
       </c>
       <c r="D91">
-        <v>-0.02117534831277731</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01649790378545551</v>
+      </c>
+      <c r="E91">
+        <v>-0.05509859523782469</v>
+      </c>
+      <c r="F91">
+        <v>-0.001077590955739334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1407225027525043</v>
+        <v>-0.1465582781170353</v>
       </c>
       <c r="C92">
-        <v>0.0186085162081045</v>
+        <v>0.02783911113615602</v>
       </c>
       <c r="D92">
-        <v>-0.2933272308044304</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2916714130007839</v>
+      </c>
+      <c r="E92">
+        <v>0.1029918308981069</v>
+      </c>
+      <c r="F92">
+        <v>-0.02158601314292285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1447567446443002</v>
+        <v>-0.1568200105864339</v>
       </c>
       <c r="C93">
-        <v>0.02440040346187833</v>
+        <v>0.0322595716443914</v>
       </c>
       <c r="D93">
-        <v>-0.2616351675929202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2610061864524032</v>
+      </c>
+      <c r="E93">
+        <v>0.07393939563862809</v>
+      </c>
+      <c r="F93">
+        <v>0.003465146577580409</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1325581853426401</v>
+        <v>-0.1247234331484497</v>
       </c>
       <c r="C94">
-        <v>0.02896577579649436</v>
+        <v>0.02647995663006617</v>
       </c>
       <c r="D94">
-        <v>0.0380051106537866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04186316548070666</v>
+      </c>
+      <c r="E94">
+        <v>-0.05660650103412879</v>
+      </c>
+      <c r="F94">
+        <v>0.03303157685953119</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1265412484632449</v>
+        <v>-0.1294764110642612</v>
       </c>
       <c r="C95">
-        <v>0.01124319018422476</v>
+        <v>0.00620478991715869</v>
       </c>
       <c r="D95">
-        <v>0.08960332367328698</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09997691634038343</v>
+      </c>
+      <c r="E95">
+        <v>-0.06052812916598514</v>
+      </c>
+      <c r="F95">
+        <v>0.006439563165034414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1359843648730977</v>
+        <v>-0.1279057267660266</v>
       </c>
       <c r="C96">
-        <v>-0.9850036395780729</v>
+        <v>-0.9850587427194274</v>
       </c>
       <c r="D96">
-        <v>-0.02123200526099844</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05131614216235708</v>
+      </c>
+      <c r="E96">
+        <v>-0.0484963751757049</v>
+      </c>
+      <c r="F96">
+        <v>0.04325924319831866</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1867697596987107</v>
+        <v>-0.1912563370578082</v>
       </c>
       <c r="C97">
-        <v>-0.002528943071751798</v>
+        <v>-0.002761926233707539</v>
       </c>
       <c r="D97">
-        <v>-0.02888161651660118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03161885696362643</v>
+      </c>
+      <c r="E97">
+        <v>-0.03782956346970191</v>
+      </c>
+      <c r="F97">
+        <v>-0.1151081817790273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1998054358868389</v>
+        <v>-0.2061339013545789</v>
       </c>
       <c r="C98">
-        <v>0.01434990377845277</v>
+        <v>0.01038553007729495</v>
       </c>
       <c r="D98">
-        <v>0.01394531025469371</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01565159236893992</v>
+      </c>
+      <c r="E98">
+        <v>0.07901242215782506</v>
+      </c>
+      <c r="F98">
+        <v>-0.09663591415888025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0561557026521223</v>
+        <v>-0.05569750324421935</v>
       </c>
       <c r="C99">
-        <v>-0.001364625732464072</v>
+        <v>-0.003463009252554643</v>
       </c>
       <c r="D99">
-        <v>0.034554381869742</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04094533333818937</v>
+      </c>
+      <c r="E99">
+        <v>-0.02613414398737199</v>
+      </c>
+      <c r="F99">
+        <v>0.003039725138258067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1485266924304976</v>
+        <v>-0.1348031850828439</v>
       </c>
       <c r="C100">
-        <v>-0.03543584527315507</v>
+        <v>-0.04733252020373335</v>
       </c>
       <c r="D100">
-        <v>0.4036210665256157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.363534342102413</v>
+      </c>
+      <c r="E100">
+        <v>0.8766692070424104</v>
+      </c>
+      <c r="F100">
+        <v>-0.1681057424005885</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02616550189321771</v>
+        <v>-0.02883270253497029</v>
       </c>
       <c r="C101">
-        <v>0.01012277811986017</v>
+        <v>0.009297509640030902</v>
       </c>
       <c r="D101">
-        <v>0.02919619772208468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03000094539560465</v>
+      </c>
+      <c r="E101">
+        <v>-0.01825722806359599</v>
+      </c>
+      <c r="F101">
+        <v>-0.01490005904013711</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
